--- a/data/trans_camb/P16A02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,59</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,83</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 12,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 19,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,11; 27,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,42; 25,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,62; 27,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,09; 26,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 16,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,32; 20,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,25; 25,02</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>163,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,48%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,7%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,93; 187,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,34; 322,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,83; 469,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,43; 131,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,64; 144,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,65; 144,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,9; 113,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,28; 152,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,15; 179,88</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,12</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,36</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 8,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,44; 10,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,91; 19,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,92; 18,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,69; 16,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,48; 25,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,65; 12,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,54; 12,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,15; 20,81</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>109,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,22%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,3%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,97; 78,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,7; 91,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,77; 172,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,3; 108,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,07; 100,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,07; 147,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,94; 81,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,59; 80,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,97; 140,82</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,85</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,22</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 8,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,09; 9,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,36; 10,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,07; 14,08</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,6; 10,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,86; 20,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,03; 10,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,71; 8,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,01; 15,16</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,23%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,02%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,2%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,43; 75,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,97; 77,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,73; 93,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,49; 70,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,13; 51,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,25; 102,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,99; 61,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,8; 53,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,17; 93,33</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,39</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,06</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 7,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,91; 5,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,87; 15,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 10,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 7,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,2; 39,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,84; 8,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 5,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,17; 29,61</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,77%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,95%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,47; 72,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,63; 55,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,74; 142,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 46,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,92; 31,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,2; 160,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,61; 46,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,32; 30,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>51,43; 168,68</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,5</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 5,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 8,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,55; 11,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,69; 13,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,79; 11,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,29; 17,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,21; 9,04</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,46; 9,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,45; 14,25</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,31%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,45%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,48%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,01%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,13; 35,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,35; 53,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,1; 78,65</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,7; 55,96</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,16; 48,87</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,12; 69,78</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,59; 44,13</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,86; 43,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,58; 69,15</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,74</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,09</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,84</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,13; 5,82</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 6,78</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,5; 12,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,47; 12,01</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,04; 9,4</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,42; 23,15</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,36; 8,26</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,73; 7,64</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,05; 17,45</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,98%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,97%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,67; 44,85</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,1; 50,77</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,02; 93,19</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,9; 53,08</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,26; 41,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,18; 100,15</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,44; 45,23</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,71; 41,64</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,5; 92,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,13</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,94</t>
+          <t>14,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,41</t>
+          <t>13,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,4</t>
+          <t>12,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,86</t>
+          <t>19,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,69</t>
+          <t>8,84</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,59</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17,83</t>
+          <t>17,48</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 12,86</t>
+          <t>0,73; 8,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 19,71</t>
+          <t>2,1; 10,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,11; 27,99</t>
+          <t>10,21; 18,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 25,52</t>
+          <t>8,26; 17,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 27,17</t>
+          <t>8,01; 17,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 26,37</t>
+          <t>15,49; 23,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 16,48</t>
+          <t>6,16; 11,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 20,75</t>
+          <t>6,33; 12,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 25,02</t>
+          <t>14,26; 20,55</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>163,31%</t>
+          <t>114,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55,48%</t>
+          <t>65,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,71%</t>
+          <t>62,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>69,78%</t>
+          <t>99,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,56%</t>
+          <t>53,81%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>73,26%</t>
+          <t>57,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>103,7%</t>
+          <t>106,45%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-29,93; 187,88</t>
+          <t>4,44; 73,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 322,82</t>
+          <t>13,98; 91,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,83; 469,38</t>
+          <t>69,77; 167,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 131,97</t>
+          <t>36,06; 96,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 144,1</t>
+          <t>36,27; 99,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,65; 144,29</t>
+          <t>69,36; 134,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 113,71</t>
+          <t>34,29; 79,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,28; 152,59</t>
+          <t>35,13; 83,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>50,15; 179,88</t>
+          <t>80,21; 137,55</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>5,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>6,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,42</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,12</t>
+          <t>9,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,98</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,36</t>
+          <t>17,37</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,87</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,62</t>
+          <t>9,51</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,48; 8,88</t>
+          <t>2,31; 8,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 10,23</t>
+          <t>3,09; 9,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,91; 19,39</t>
+          <t>-4,6; 9,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,92; 18,28</t>
+          <t>6,07; 14,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,69; 16,96</t>
+          <t>2,6; 10,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,48; 25,05</t>
+          <t>13,32; 20,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 12,38</t>
+          <t>5,03; 10,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 12,06</t>
+          <t>3,71; 8,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,15; 20,81</t>
+          <t>0,65; 14,0</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,07%</t>
+          <t>43,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>41,92%</t>
+          <t>48,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>109,18%</t>
+          <t>30,54%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,79%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>61,92%</t>
+          <t>30,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>105,22%</t>
+          <t>79,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>54,5%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,9%</t>
+          <t>37,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>108,3%</t>
+          <t>53,83%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 78,61</t>
+          <t>14,43; 75,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 91,86</t>
+          <t>19,97; 77,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>61,77; 172,71</t>
+          <t>-32,29; 75,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,3; 108,94</t>
+          <t>24,49; 70,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,07; 100,67</t>
+          <t>11,13; 51,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,07; 147,9</t>
+          <t>55,64; 105,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,94; 81,84</t>
+          <t>25,99; 61,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,59; 80,59</t>
+          <t>18,8; 53,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>77,97; 140,82</t>
+          <t>5,38; 81,56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>10,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,62</t>
+          <t>5,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,85</t>
+          <t>24,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>12,22</t>
+          <t>19,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,94</t>
+          <t>0,57; 7,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,58</t>
+          <t>-0,91; 5,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 10,98</t>
+          <t>6,78; 15,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,07; 14,08</t>
+          <t>0,66; 10,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 10,29</t>
+          <t>-2,2; 7,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,86; 20,47</t>
+          <t>8,66; 49,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,03; 10,13</t>
+          <t>1,84; 8,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 8,94</t>
+          <t>-0,46; 5,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,01; 15,16</t>
+          <t>9,51; 39,14</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>34,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>48,23%</t>
+          <t>21,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>55,9%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>43,8%</t>
+          <t>22,5%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>76,71%</t>
+          <t>93,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>43,58%</t>
+          <t>26,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37,02%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>69,2%</t>
+          <t>101,07%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,43; 75,3</t>
+          <t>2,47; 72,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,97; 77,98</t>
+          <t>-6,63; 55,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,73; 93,28</t>
+          <t>47,5; 142,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,49; 70,33</t>
+          <t>2,18; 46,1</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,13; 51,34</t>
+          <t>-7,92; 31,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>53,25; 102,78</t>
+          <t>32,19; 208,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,99; 61,72</t>
+          <t>8,61; 46,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,8; 53,2</t>
+          <t>-2,32; 30,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>48,17; 93,33</t>
+          <t>48,32; 222,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,17</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,76</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>9,98</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,42</t>
+          <t>7,9</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,39</t>
+          <t>11,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,08</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>10,4</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,57; 7,81</t>
+          <t>-1,85; 5,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 5,98</t>
+          <t>1,17; 8,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 15,35</t>
+          <t>5,11; 12,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 10,8</t>
+          <t>5,69; 13,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 7,38</t>
+          <t>3,79; 11,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,2; 39,34</t>
+          <t>3,48; 15,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 8,27</t>
+          <t>3,21; 9,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 5,43</t>
+          <t>3,46; 9,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>10,17; 29,61</t>
+          <t>6,19; 13,52</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>34,0%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>87,66%</t>
+          <t>52,06%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>22,5%</t>
+          <t>37,28%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>74,77%</t>
+          <t>43,34%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>27,48%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>47,46%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,47; 72,37</t>
+          <t>-10,13; 35,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 55,87</t>
+          <t>5,35; 53,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,74; 142,92</t>
+          <t>27,67; 83,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 46,1</t>
+          <t>19,7; 55,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 31,87</t>
+          <t>13,16; 48,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,2; 160,02</t>
+          <t>13,39; 63,36</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,61; 46,97</t>
+          <t>13,59; 44,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 30,98</t>
+          <t>14,86; 43,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>51,43; 168,68</t>
+          <t>27,73; 65,55</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,98</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>7,9</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
+          <t>18,07</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6,85</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>6,15</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>13,5</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>6,02</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>6,31</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>11,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 5,33</t>
+          <t>2,13; 5,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,01</t>
+          <t>3,32; 6,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,55; 11,85</t>
+          <t>3,38; 11,31</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,69; 13,96</t>
+          <t>7,47; 12,01</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,79; 11,94</t>
+          <t>5,04; 9,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,29; 17,23</t>
+          <t>13,59; 28,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,04</t>
+          <t>5,36; 8,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,0</t>
+          <t>4,73; 7,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>8,45; 14,25</t>
+          <t>10,1; 20,27</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>61,35%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>37,28%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>50,45%</t>
+          <t>75,7%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>28,79%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>51,01%</t>
+          <t>71,15%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 35,4</t>
+          <t>14,67; 44,85</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>5,35; 53,35</t>
+          <t>22,1; 50,77</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>25,1; 78,65</t>
+          <t>25,22; 84,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>19,7; 55,96</t>
+          <t>29,9; 53,08</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>13,16; 48,87</t>
+          <t>20,26; 41,64</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>32,12; 69,78</t>
+          <t>55,99; 122,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,59; 44,13</t>
+          <t>27,44; 45,23</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,86; 43,23</t>
+          <t>23,71; 41,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>35,58; 69,15</t>
+          <t>52,69; 107,17</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,96</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>4,95</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>9,74</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>9,61</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>7,23</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>17,09</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>6,85</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>6,15</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>13,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 5,82</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>3,32; 6,78</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>7,5; 12,05</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>7,47; 12,01</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 9,4</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>14,42; 23,15</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>5,36; 8,26</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>4,73; 7,64</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>12,05; 17,45</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>28,43%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>35,59%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>69,98%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>40,27%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>30,29%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>71,61%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>36,12%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>32,4%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>72,97%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>14,67; 44,85</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>22,1; 50,77</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>52,02; 93,19</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>29,9; 53,08</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>20,26; 41,64</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>58,18; 100,15</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>27,44; 45,23</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>23,71; 41,64</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>61,5; 92,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 8,32</t>
+          <t>0,87; 8,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 10,26</t>
+          <t>2,65; 10,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,21; 18,72</t>
+          <t>9,65; 18,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,26; 17,92</t>
+          <t>7,96; 17,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,01; 17,79</t>
+          <t>7,56; 16,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,49; 23,98</t>
+          <t>15,83; 24,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 11,98</t>
+          <t>5,55; 11,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,33; 12,67</t>
+          <t>6,03; 12,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,26; 20,55</t>
+          <t>14,46; 20,62</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 73,75</t>
+          <t>5,62; 78,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,98; 91,68</t>
+          <t>17,33; 95,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,77; 167,32</t>
+          <t>66,25; 172,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>36,06; 96,71</t>
+          <t>36,41; 98,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,27; 99,51</t>
+          <t>34,43; 92,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,36; 134,61</t>
+          <t>69,54; 137,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,29; 79,77</t>
+          <t>30,22; 77,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,13; 83,86</t>
+          <t>32,94; 82,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>80,21; 137,55</t>
+          <t>79,28; 135,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 8,94</t>
+          <t>2,41; 9,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 9,58</t>
+          <t>3,51; 9,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 9,73</t>
+          <t>-4,34; 9,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 14,08</t>
+          <t>5,49; 13,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 10,29</t>
+          <t>2,73; 10,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,32; 20,96</t>
+          <t>13,72; 21,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 10,13</t>
+          <t>5,12; 10,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 8,94</t>
+          <t>4,03; 9,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 14,0</t>
+          <t>0,25; 13,87</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,43; 75,3</t>
+          <t>15,94; 78,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,97; 77,98</t>
+          <t>22,75; 86,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 75,77</t>
+          <t>-31,49; 75,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,49; 70,33</t>
+          <t>21,81; 65,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,13; 51,34</t>
+          <t>10,7; 52,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,64; 105,4</t>
+          <t>56,91; 108,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,99; 61,72</t>
+          <t>26,92; 62,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,8; 53,2</t>
+          <t>21,64; 56,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 81,56</t>
+          <t>2,02; 81,97</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 7,81</t>
+          <t>-0,12; 7,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 5,98</t>
+          <t>-1,39; 6,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,78; 15,29</t>
+          <t>6,11; 15,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 10,8</t>
+          <t>0,72; 10,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 7,38</t>
+          <t>-2,29; 7,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,66; 49,58</t>
+          <t>8,15; 47,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 8,27</t>
+          <t>1,71; 8,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 5,43</t>
+          <t>-0,21; 5,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,51; 39,14</t>
+          <t>9,54; 40,08</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 72,37</t>
+          <t>-0,9; 74,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 55,87</t>
+          <t>-9,53; 61,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,5; 142,47</t>
+          <t>42,25; 149,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,18; 46,1</t>
+          <t>2,68; 45,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 31,87</t>
+          <t>-8,51; 30,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,19; 208,25</t>
+          <t>29,94; 200,45</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,61; 46,97</t>
+          <t>8,22; 46,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 30,98</t>
+          <t>-1,1; 31,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>48,32; 222,79</t>
+          <t>49,66; 215,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 5,33</t>
+          <t>-1,91; 4,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 8,01</t>
+          <t>0,87; 7,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,11; 12,58</t>
+          <t>4,83; 12,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,69; 13,96</t>
+          <t>5,81; 14,04</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,79; 11,94</t>
+          <t>4,13; 12,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,48; 15,96</t>
+          <t>3,1; 16,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,04</t>
+          <t>3,1; 8,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,0</t>
+          <t>3,63; 9,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,19; 13,52</t>
+          <t>6,31; 13,31</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 35,4</t>
+          <t>-10,37; 31,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,35; 53,35</t>
+          <t>4,57; 50,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,67; 83,82</t>
+          <t>26,79; 82,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>19,7; 55,96</t>
+          <t>19,74; 55,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,16; 48,87</t>
+          <t>13,96; 48,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,39; 63,36</t>
+          <t>12,8; 64,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,59; 44,13</t>
+          <t>13,44; 41,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,86; 43,23</t>
+          <t>14,65; 43,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,73; 65,55</t>
+          <t>28,28; 64,63</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,82</t>
+          <t>2,17; 5,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,78</t>
+          <t>3,19; 6,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,38; 11,31</t>
+          <t>3,74; 11,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,01</t>
+          <t>7,53; 11,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,4</t>
+          <t>5,0; 9,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,59; 28,76</t>
+          <t>13,82; 29,23</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,26</t>
+          <t>5,25; 8,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,64</t>
+          <t>4,78; 7,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>10,1; 20,27</t>
+          <t>10,07; 20,12</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>14,67; 44,85</t>
+          <t>14,09; 43,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>22,1; 50,77</t>
+          <t>21,14; 50,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>25,22; 84,56</t>
+          <t>27,65; 84,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>29,9; 53,08</t>
+          <t>30,33; 50,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>20,26; 41,64</t>
+          <t>20,12; 40,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>55,99; 122,79</t>
+          <t>56,71; 123,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>27,44; 45,23</t>
+          <t>26,83; 45,22</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>23,71; 41,64</t>
+          <t>24,07; 41,73</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>52,69; 107,17</t>
+          <t>52,09; 105,95</t>
         </is>
       </c>
     </row>
